--- a/EU_output/Lisbon/Meta_cal_output/Processed output.xlsx
+++ b/EU_output/Lisbon/Meta_cal_output/Processed output.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1210607\ENC_Py3_1\EU_output\Lisbon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\ENC_Py3_1\EU_output\Lisbon\Meta_cal_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="ADF4374BB881ED005E93F5A38A9DBA4F1CFEB18A" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{BA8F2420-3498-4CA7-8702-424EBD234A87}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisbon (c)" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3847,817 +3848,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Lisbon (all)'!$O$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lisbon (all)'!$S$3:$S$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="125"/>
-                <c:pt idx="0">
-                  <c:v>6.20726571485E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4925810358800004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7369194485099995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.10426360044E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.46823456568E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5108095883799996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8714244624799997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.22590083317E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6837078995000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9922586593299996E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8233433804800001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.4154009943300001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.8528707608699996E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2475821123099993E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.7828746220999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.4794579787000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.9529550384900005E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.3218667713000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.7021408517099996E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.0039353538499997E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.1355389309800005E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.4443985237100005E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.7495020245299995E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.9293105908700002E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.9382041994599995E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.4402718429399999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.6253185398299996E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.7942296123299994E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2321330914800003E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4609107093400004E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6066209810500001E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.0021354049599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.3101026414500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.7777343515699995E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.1376663819499997E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.9800159968E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.3234625580099993E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.7777710695299998E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.26988422408E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.7601048567400003E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.5762646341600001E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.0712497531500005E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.3474418523100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.6502732832600002E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.8677493605099994E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.0232817920999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.4895121520300001E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.8254829711199995E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.9649607172900006E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.0249456286499996E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.4682145081200002E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.57027115666E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.0153519494099995E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.2443689744000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.4878448415999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.6608450532200006E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.9285519654700006E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.28427576731E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.6463684949700003E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.2654281750500005E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.0426380455999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.4637596454499994E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.8438230592199995E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.3392735512099997E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8.6651653663600003E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.6821656578799996E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8.0719721975000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.4002155988300006E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.6328014654000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.8682663953099997E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.8613718829099996E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.3315015216100005E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8.6593902592300001E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9.0719420080699997E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.0545169104399997E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.4662763366599998E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.5679393267300004E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.9597355813E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.14283682941E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.4837566546999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.7294392724899996E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.9440152682100006E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7.2454871734900006E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7.7685143732100004E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.2233886429700004E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.2362398109100001E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.6092786763099995E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.0392241573200005E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.3218626235799995E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.6530362438700006E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.4960776611999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.9968416284099994E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8.2968123597600002E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.5319868830599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.9738714642700002E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.9287729345400002E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8.3092468176399994E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.6236701474800004E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8.9872343007700001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.2206486522900005E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6.5917670922000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6.7838065902199998E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.0332322393899999E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.2041211588000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.7293144600900004E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6.7780411492200002E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>7.0471675430899994E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.3763128046400006E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>7.8349771547799998E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>8.2983519591499993E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7.2286581344399997E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>7.6414615376500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7.9178952471600006E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>8.25131408949E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8.5382060933899995E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7.5522828083399995E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>8.0185674680699995E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>8.2271014184799998E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8.7606032791699998E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>9.1030876063800004E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>7.93941909887E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8.4224584163800006E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>8.6494240286199994E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>9.1108466322300005E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>9.3096225563200005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lisbon (all)'!$T$3:$T$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="125"/>
-                <c:pt idx="0">
-                  <c:v>2.93478873613E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8989780675499999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8556102416700001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8092607582800001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7530153194500001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0366605767599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0136102622600001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9619625620199999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9202012720399999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8736609570800001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1696872004299999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1359642831700001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.0771356012200001E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0329531952399999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.99875045169E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3019718678999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2669903559399999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.2134686726399998E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1571651859800001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.1423392685200002E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.4080104139999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.3453981903099998E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.3029109676599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.2682524121100003E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.2539617490799998E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.1074944493099999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.0735440999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.0523488584800001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.01969357449E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9882176296500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.2425664104899998E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.2160277805100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.1840366341200001E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.1342652111100003E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0885837933199999E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.3606223866100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.3333869579600002E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.2872364379500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.2514079548299997E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.21556146428E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.4935634825100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.4417772663400001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.3815965272800001E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.35469349996E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.3143446215199997E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.6057816258099999E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.5570470442700002E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.5100549054900003E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.46329392587E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.4347207171200003E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.3322002120799998E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.2774190586900002E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.23862230867E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.2134082454500001E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.1714002684099997E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.4376445304599997E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.3974490236500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.3596929658100003E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.30578627234E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.27376428035E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.5630397347599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.5186718927600003E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.4886207565999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.4267741770199998E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.3902199254299999E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.7099671509099999E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.6517502546200002E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.5926007909800002E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.5697987011E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.5178204821499998E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.7702083784200001E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.7171034738500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.6692307211200002E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.6565047074199997E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.6175323713299998E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.5080251789800003E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.4709727576500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.4291560702500001E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.3924948456799997E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.3473883867499998E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.6340342401899997E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.5869177756900003E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.5527572820700001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.49619572196E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4797429204099999E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.75968206884E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.7160543538800002E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.6842619443199998E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.6370714519099998E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.5971301889099999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.8653501481200003E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.8213925537699998E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.77383510851E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.7165252846600001E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.6610563362799997E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.93685670476E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.91444528002E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.8529210191299998E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.81056324898E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3.7870000569099997E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3.6740281272999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>3.6512656311499997E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>3.6035737515300002E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>3.5636264934400003E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3.5080200877799998E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.8233604364499997E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.7816084055399997E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.7354208078699998E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.6863999007300002E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.6556595895600001E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.9359233450499999E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3.8942894689099998E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.8589328479300002E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3.81882281283E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.76864409902E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4.0127076625900003E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.9678786088400003E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.94673995609E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3.8895726057E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3.8428189972200003E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4.1109686819500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>4.0663141405500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>4.01871968329E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>3.9625596752200003E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3.9349689594099999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-11A5-46CE-8BE2-DE15DD33B2A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4668,6 +3858,841 @@
         </c:dLbls>
         <c:axId val="582867456"/>
         <c:axId val="582872048"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Lisbon (all)'!$O$1:$T$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Final</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Lisbon (all)'!$S$3:$S$127</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="125"/>
+                      <c:pt idx="0">
+                        <c:v>6.20726571485E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.4925810358800004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.7369194485099995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.10426360044E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.46823456568E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.5108095883799996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.8714244624799997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.22590083317E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.6837078995000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.9922586593299996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.8233433804800001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7.4154009943300001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7.8528707608699996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.2475821123099993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8.7828746220999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7.4794579787000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.9529550384900005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8.3218667713000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8.7021408517099996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9.0039353538499997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8.1355389309800005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>8.4443985237100005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8.7495020245299995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>8.9293105908700002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8.9382041994599995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>6.4402718429399999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>6.6253185398299996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>6.7942296123299994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.2321330914800003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7.4609107093400004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.6066209810500001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>7.0021354049599999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>7.3101026414500003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>7.7777343515699995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8.1376663819499997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.9800159968E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7.3234625580099993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>7.7777710695299998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>8.26988422408E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>8.7601048567400003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>7.5762646341600001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>8.0712497531500005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>8.3474418523100002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>8.6502732832600002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>8.8677493605099994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>8.0232817920999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>8.4895121520300001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>8.8254829711199995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>8.9649607172900006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>9.0249456286499996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>6.4682145081200002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>6.57027115666E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7.0153519494099995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7.2443689744000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7.4878448415999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>6.6608450532200006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>6.9285519654700006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>7.28427576731E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>7.6463684949700003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>8.2654281750500005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>7.0426380455999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>7.4637596454499994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>7.8438230592199995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>8.3392735512099997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>8.6651653663600003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>7.6821656578799996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>8.0719721975000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>8.4002155988300006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>8.6328014654000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>8.8682663953099997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7.8613718829099996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>8.3315015216100005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>8.6593902592300001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>9.0719420080699997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>9.0545169104399997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>6.4662763366599998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>6.5679393267300004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>6.9597355813E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7.14283682941E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>7.4837566546999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>6.7294392724899996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>6.9440152682100006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>7.2454871734900006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>7.7685143732100004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>8.2233886429700004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>7.2362398109100001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>7.6092786763099995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>8.0392241573200005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>8.3218626235799995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>8.6530362438700006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>7.4960776611999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>7.9968416284099994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>8.2968123597600002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>8.5319868830599999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>8.9738714642700002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>7.9287729345400002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>8.3092468176399994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>8.6236701474800004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>8.9872343007700001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9.2206486522900005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>6.5917670922000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>6.7838065902199998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>7.0332322393899999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>7.2041211588000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>7.7293144600900004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>6.7780411492200002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>7.0471675430899994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>7.3763128046400006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>7.8349771547799998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>8.2983519591499993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>7.2286581344399997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>7.6414615376500003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>7.9178952471600006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>8.25131408949E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>8.5382060933899995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>7.5522828083399995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>8.0185674680699995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>8.2271014184799998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>8.7606032791699998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>9.1030876063800004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>7.93941909887E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>8.4224584163800006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>8.6494240286199994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>9.1108466322300005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>9.3096225563200005E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Lisbon (all)'!$T$3:$T$127</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="125"/>
+                      <c:pt idx="0">
+                        <c:v>2.93478873613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.8989780675499999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.8556102416700001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.8092607582800001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.7530153194500001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.0366605767599999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0136102622600001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.9619625620199999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.9202012720399999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.8736609570800001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.1696872004299999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1359642831700001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.0771356012200001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.0329531952399999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.99875045169E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.3019718678999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.2669903559399999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.2134686726399998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.1571651859800001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.1423392685200002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.4080104139999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.3453981903099998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.3029109676599999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3.2682524121100003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3.2539617490799998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3.1074944493099999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3.0735440999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3.0523488584800001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3.01969357449E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.9882176296500002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3.2425664104899998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.2160277805100002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.1840366341200001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.1342652111100003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.0885837933199999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.3606223866100002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3.3333869579600002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3.2872364379500002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.2514079548299997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.21556146428E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>3.4935634825100002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>3.4417772663400001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3.3815965272800001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3.35469349996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3.3143446215199997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3.6057816258099999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3.5570470442700002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>3.5100549054900003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>3.46329392587E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3.4347207171200003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>3.3322002120799998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>3.2774190586900002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3.23862230867E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>3.2134082454500001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>3.1714002684099997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>3.4376445304599997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>3.3974490236500003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>3.3596929658100003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>3.30578627234E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>3.27376428035E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>3.5630397347599999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>3.5186718927600003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>3.4886207565999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>3.4267741770199998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>3.3902199254299999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3.7099671509099999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3.6517502546200002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>3.5926007909800002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>3.5697987011E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>3.5178204821499998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3.7702083784200001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3.7171034738500003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3.6692307211200002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3.6565047074199997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3.6175323713299998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3.5080251789800003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>3.4709727576500003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>3.4291560702500001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3.3924948456799997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3.3473883867499998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3.6340342401899997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>3.5869177756900003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>3.5527572820700001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>3.49619572196E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>3.4797429204099999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>3.75968206884E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>3.7160543538800002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>3.6842619443199998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>3.6370714519099998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>3.5971301889099999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>3.8653501481200003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>3.8213925537699998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>3.77383510851E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>3.7165252846600001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>3.6610563362799997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>3.93685670476E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>3.91444528002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>3.8529210191299998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>3.81056324898E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>3.7870000569099997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>3.6740281272999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>3.6512656311499997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>3.6035737515300002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>3.5636264934400003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>3.5080200877799998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>3.8233604364499997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>3.7816084055399997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>3.7354208078699998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>3.6863999007300002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>3.6556595895600001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>3.9359233450499999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>3.8942894689099998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>3.8589328479300002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>3.81882281283E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>3.76864409902E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>4.0127076625900003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>3.9678786088400003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>3.94673995609E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>3.8895726057E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>3.8428189972200003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>4.1109686819500002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>4.0663141405500002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>4.01871968329E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>3.9625596752200003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>3.9349689594099999E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-11A5-46CE-8BE2-DE15DD33B2A5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="582867456"/>
@@ -4721,7 +4746,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4840,7 +4864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4921,7 +4944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7079,16 +7101,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7120,7 +7142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7156,7 +7178,7 @@
         <v>2.8011898141986622</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -7192,7 +7214,7 @@
         <v>2.6909746269955903</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -7228,7 +7250,7 @@
         <v>2.5786935158462079</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -7264,7 +7286,7 @@
         <v>2.6959732476511817</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7300,7 +7322,7 @@
         <v>2.6152347264270102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -7336,7 +7358,7 @@
         <v>2.5444951385111447</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -7372,7 +7394,7 @@
         <v>2.5875908414109441</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -7408,7 +7430,7 @@
         <v>2.381151971606009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -7444,7 +7466,7 @@
         <v>2.4298397527732893</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -7480,7 +7502,7 @@
         <v>2.4516601877682467</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -7516,7 +7538,7 @@
         <v>2.5337010179614392</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7552,7 +7574,7 @@
         <v>2.5050120108403569</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -7588,7 +7610,7 @@
         <v>2.4688500273825205</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -7624,7 +7646,7 @@
         <v>2.4711990695825632</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -7660,7 +7682,7 @@
         <v>2.415503606297698</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7696,7 +7718,7 @@
         <v>2.5825427055671311</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7732,7 +7754,7 @@
         <v>2.6456109181821734</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -7768,7 +7790,7 @@
         <v>2.3583861955452212</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7804,7 +7826,7 @@
         <v>2.6354555483281183</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7840,7 +7862,7 @@
         <v>2.3991195848920226</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -7876,7 +7898,7 @@
         <v>2.5896909810794897</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.05</v>
       </c>
@@ -7912,7 +7934,7 @@
         <v>2.5671517019000749</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -7948,7 +7970,7 @@
         <v>2.4656968669041124</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -7984,7 +8006,7 @@
         <v>2.3167272289725971</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8020,7 +8042,7 @@
         <v>2.4913024038104452</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8056,7 +8078,7 @@
         <v>2.441501479540455</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8092,7 +8114,7 @@
         <v>2.5239856723556398</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -8128,7 +8150,7 @@
         <v>2.4149859489851213</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.05</v>
       </c>
@@ -8164,7 +8186,7 @@
         <v>2.6319914098697352</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8200,7 +8222,7 @@
         <v>2.5002348235320411</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -8236,7 +8258,7 @@
         <v>2.3263630851323276</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -8272,7 +8294,7 @@
         <v>2.4649420720683959</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8308,7 +8330,7 @@
         <v>2.5242469985674107</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8344,7 +8366,7 @@
         <v>2.3623079800499225</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8380,7 +8402,7 @@
         <v>2.4252348488577722</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.1</v>
       </c>
@@ -8416,7 +8438,7 @@
         <v>2.5371519479019788</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.1</v>
       </c>
@@ -8452,7 +8474,7 @@
         <v>2.3194233988991231</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8488,7 +8510,7 @@
         <v>2.3905363428427169</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.05</v>
       </c>
@@ -8524,7 +8546,7 @@
         <v>2.410173399390279</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8560,7 +8582,7 @@
         <v>2.3382950949231569</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.1</v>
       </c>
@@ -8596,7 +8618,7 @@
         <v>2.4739673053314446</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -8632,7 +8654,7 @@
         <v>2.2291215560036655</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8668,7 +8690,7 @@
         <v>2.4074097615556451</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.05</v>
       </c>
@@ -8704,7 +8726,7 @@
         <v>2.3938871180544368</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.05</v>
       </c>
@@ -8740,7 +8762,7 @@
         <v>2.4427295175074661</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8776,7 +8798,7 @@
         <v>2.4773292172491481</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.1</v>
       </c>
@@ -8812,7 +8834,7 @@
         <v>2.1971220669710827</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8848,7 +8870,7 @@
         <v>2.2518897746758242</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.1</v>
       </c>
@@ -8884,7 +8906,7 @@
         <v>2.448357521833155</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.05</v>
       </c>
@@ -8920,7 +8942,7 @@
         <v>2.4127791407034818</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.05</v>
       </c>
@@ -8956,7 +8978,7 @@
         <v>2.2629809023177283</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.05</v>
       </c>
@@ -8992,7 +9014,7 @@
         <v>2.4543605958107673</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.1</v>
       </c>
@@ -9028,7 +9050,7 @@
         <v>1.9734087328058596</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9064,7 +9086,7 @@
         <v>2.0086900536682806</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.05</v>
       </c>
@@ -9100,7 +9122,7 @@
         <v>2.3112061677008664</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.05</v>
       </c>
@@ -9136,7 +9158,7 @@
         <v>2.0615434221946431</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9172,7 +9194,7 @@
         <v>2.4644302694196951</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9208,7 +9230,7 @@
         <v>2.406818480819513</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9244,7 +9266,7 @@
         <v>2.4403391013739113</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.05</v>
       </c>
@@ -9280,7 +9302,7 @@
         <v>2.4737721258528853</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9316,7 +9338,7 @@
         <v>1.8886208750885154</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.05</v>
       </c>
@@ -9352,7 +9374,7 @@
         <v>2.0868227744848706</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.05</v>
       </c>
@@ -9388,7 +9410,7 @@
         <v>2.3515056170817772</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.05</v>
       </c>
@@ -9424,7 +9446,7 @@
         <v>1.9479029955801859</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.05</v>
       </c>
@@ -9460,7 +9482,7 @@
         <v>2.1497383864841804</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.05</v>
       </c>
@@ -9496,7 +9518,7 @@
         <v>2.2377381696508314</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9532,7 +9554,7 @@
         <v>2.3305959232481817</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.05</v>
       </c>
@@ -9568,7 +9590,7 @@
         <v>2.3377879234896186</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.05</v>
       </c>
@@ -9604,7 +9626,7 @@
         <v>1.7682964623453408</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9640,7 +9662,7 @@
         <v>2.1572272307861153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9676,7 +9698,7 @@
         <v>1.9321387342584444</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9712,7 +9734,7 @@
         <v>1.2884130274358894</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9748,7 +9770,7 @@
         <v>2.1639768861950071</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9784,7 +9806,7 @@
         <v>2.3001783632974275</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.05</v>
       </c>
@@ -9820,7 +9842,7 @@
         <v>1.251400395241796</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.05</v>
       </c>
@@ -9856,7 +9878,7 @@
         <v>2.2120865677055805</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9892,7 +9914,7 @@
         <v>1.9591889176339246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9928,7 +9950,7 @@
         <v>1.7919898369349418</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.05</v>
       </c>
@@ -9964,7 +9986,7 @@
         <v>1.1417264254393749</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.05</v>
       </c>
@@ -10000,7 +10022,7 @@
         <v>2.2359430619858465</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10036,7 +10058,7 @@
         <v>2.1733508888116466</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10072,7 +10094,7 @@
         <v>1.6612725026420063</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10108,7 +10130,7 @@
         <v>1.8328330322855191</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10144,7 +10166,7 @@
         <v>1.2374960525526317</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.05</v>
       </c>
@@ -10180,7 +10202,7 @@
         <v>2.1426192929688179</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10216,7 +10238,7 @@
         <v>1.8917076387343674</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10252,7 +10274,7 @@
         <v>1.9507306177712906</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10288,7 +10310,7 @@
         <v>2.1788235949710506</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10324,7 +10346,7 @@
         <v>1.6996209410134946</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10360,7 +10382,7 @@
         <v>1.5019533934203593</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.05</v>
       </c>
@@ -10396,7 +10418,7 @@
         <v>0.56490146617370174</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10432,7 +10454,7 @@
         <v>1.9660308094107259</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10468,7 +10490,7 @@
         <v>2.1352617766853372</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10504,7 +10526,7 @@
         <v>2.1372675804874395</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10540,7 +10562,7 @@
         <v>2.1134025971471959</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10576,7 +10598,7 @@
         <v>1.1480191883437227</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10612,7 +10634,7 @@
         <v>1.0606851513632214</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10648,7 +10670,7 @@
         <v>0.5010826878693041</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10684,7 +10706,7 @@
         <v>0.50561973270367888</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10720,7 +10742,7 @@
         <v>0.21895894753035194</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -10756,7 +10778,7 @@
         <v>1.614704664633714</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -10792,7 +10814,7 @@
         <v>1.4707472455357014</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -10828,7 +10850,7 @@
         <v>1.7046654165771971</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -10864,7 +10886,7 @@
         <v>1.3279376536449881</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -10900,7 +10922,7 @@
         <v>1.9051632570626986</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -10936,7 +10958,7 @@
         <v>1.6767163830458616</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -10972,7 +10994,7 @@
         <v>1.1692855071023625</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -11008,7 +11030,7 @@
         <v>4.5713384841233731E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0</v>
       </c>
@@ -11044,7 +11066,7 @@
         <v>1.5619365805628931</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0</v>
       </c>
@@ -11080,7 +11102,7 @@
         <v>1.9223145737142553</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -11116,7 +11138,7 @@
         <v>1.9318230875200695</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -11152,7 +11174,7 @@
         <v>1.9318230875200695</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -11188,7 +11210,7 @@
         <v>1.7214275718119012</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -11224,7 +11246,7 @@
         <v>1.5938782307270383</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -11260,7 +11282,7 @@
         <v>0.17691391933629386</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -11296,7 +11318,7 @@
         <v>0.52426505181542482</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -11332,7 +11354,7 @@
         <v>1.7326642430651198</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -11368,7 +11390,7 @@
         <v>1.8190722776581172</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -11404,7 +11426,7 @@
         <v>1.1799054527162904</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0</v>
       </c>
@@ -11440,7 +11462,7 @@
         <v>0.21125586628128395</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -11476,7 +11498,7 @@
         <v>1.021154033637494</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0</v>
       </c>
@@ -11512,7 +11534,7 @@
         <v>1.1084581194927758</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0</v>
       </c>
@@ -11548,7 +11570,7 @@
         <v>0.56367952805667276</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -11584,7 +11606,7 @@
         <v>1.8491607715610048</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0</v>
       </c>
@@ -11629,16 +11651,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
       <selection sqref="A1:F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11670,7 +11692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -11706,7 +11728,7 @@
         <v>1.5368604581362002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -11742,7 +11764,7 @@
         <v>1.8327049894011702</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9.375E-2</v>
       </c>
@@ -11778,7 +11800,7 @@
         <v>1.6319531175618605</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -11814,7 +11836,7 @@
         <v>1.6479565491816901</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9.375E-2</v>
       </c>
@@ -11850,7 +11872,7 @@
         <v>1.9554111852609515</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -11886,7 +11908,7 @@
         <v>1.7756202242064036</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -11922,7 +11944,7 @@
         <v>1.5584986864478112</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -11958,7 +11980,7 @@
         <v>1.2179475078144224</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -11994,7 +12016,7 @@
         <v>2.0134096695078592</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.375E-2</v>
       </c>
@@ -12030,7 +12052,7 @@
         <v>1.4475129068824242</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -12066,7 +12088,7 @@
         <v>1.8781919105194236</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -12102,7 +12124,7 @@
         <v>1.2843591061115183</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -12138,7 +12160,7 @@
         <v>1.979178782246922</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -12174,7 +12196,7 @@
         <v>1.7930869604500468</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9.375E-2</v>
       </c>
@@ -12210,7 +12232,7 @@
         <v>1.6908451611381772</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -12246,7 +12268,7 @@
         <v>1.915643054193616</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9.375E-2</v>
       </c>
@@ -12282,7 +12304,7 @@
         <v>1.3242310475156589</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9.375E-2</v>
       </c>
@@ -12318,7 +12340,7 @@
         <v>1.7615144243554814</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -12354,7 +12376,7 @@
         <v>1.6271297042123432</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -12390,7 +12412,7 @@
         <v>1.4698788673960057</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -12426,7 +12448,7 @@
         <v>1.8370885268095913</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -12462,7 +12484,7 @@
         <v>1.5546397265820324</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -12498,7 +12520,7 @@
         <v>2.1213965789850082</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -12534,7 +12556,7 @@
         <v>2.0644483514795455</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>9.375E-2</v>
       </c>
@@ -12570,7 +12592,7 @@
         <v>1.9999519753610813</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -12606,7 +12628,7 @@
         <v>1.243792295996812</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9.375E-2</v>
       </c>
@@ -12642,7 +12664,7 @@
         <v>2.059553282326906</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -12678,7 +12700,7 @@
         <v>1.5970540081111875</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -12714,7 +12736,7 @@
         <v>1.8542655876996363</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9.375E-2</v>
       </c>
@@ -12750,7 +12772,7 @@
         <v>1.361868759052649</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -12786,7 +12808,7 @@
         <v>1.6737068518130052</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9.375E-2</v>
       </c>
@@ -12822,7 +12844,7 @@
         <v>1.7136596739636052</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -12858,7 +12880,7 @@
         <v>2.007104603259382</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.1</v>
       </c>
@@ -12894,7 +12916,7 @@
         <v>1.3283621473268803</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -12930,7 +12952,7 @@
         <v>2.2295332112777446</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -12966,7 +12988,7 @@
         <v>1.9383985172144578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13002,7 +13024,7 @@
         <v>1.6787151197138273</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13038,7 +13060,7 @@
         <v>2.1931819712602656</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -13074,7 +13096,7 @@
         <v>1.7567729332226067</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -13110,7 +13132,7 @@
         <v>1.8719685317848436</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.1</v>
       </c>
@@ -13146,7 +13168,7 @@
         <v>0.98616788695782209</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13182,7 +13204,7 @@
         <v>1.4786292434181978</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>9.375E-2</v>
       </c>
@@ -13218,7 +13240,7 @@
         <v>1.1200514775808483</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -13254,7 +13276,7 @@
         <v>2.1332651570622376</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.1</v>
       </c>
@@ -13290,7 +13312,7 @@
         <v>1.2823218687426492</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13326,7 +13348,7 @@
         <v>2.0685272902188903</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -13362,7 +13384,7 @@
         <v>1.6696552670181317</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13398,7 +13420,7 @@
         <v>1.8460860180751655</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.1</v>
       </c>
@@ -13434,7 +13456,7 @@
         <v>1.0841758068995631</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9.375E-2</v>
       </c>
@@ -13470,7 +13492,7 @@
         <v>1.4226648200295215</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>9.375E-2</v>
       </c>
@@ -13506,7 +13528,7 @@
         <v>1.4324662474766958</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.1</v>
       </c>
@@ -13542,7 +13564,7 @@
         <v>1.4040005492478729</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>9.375E-2</v>
       </c>
@@ -13578,7 +13600,7 @@
         <v>1.7854101261804223</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13614,7 +13636,7 @@
         <v>1.246793957224986</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -13650,7 +13672,7 @@
         <v>1.9991698189835554</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.1</v>
       </c>
@@ -13686,7 +13708,7 @@
         <v>1.5919564334332015</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>9.375E-2</v>
       </c>
@@ -13722,7 +13744,7 @@
         <v>1.5509394055598373</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -13758,7 +13780,7 @@
         <v>1.5678259468719209</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>9.375E-2</v>
       </c>
@@ -13794,7 +13816,7 @@
         <v>1.1959312256206851</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -13830,7 +13852,7 @@
         <v>2.2682420686567681</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -13866,7 +13888,7 @@
         <v>1.7492842231211259</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -13902,7 +13924,7 @@
         <v>1.7765319197940133</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>9.375E-2</v>
       </c>
@@ -13938,7 +13960,7 @@
         <v>1.7061655751830953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.1</v>
       </c>
@@ -13974,7 +13996,7 @@
         <v>0.83691749204012766</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -14010,7 +14032,7 @@
         <v>2.006122405339644</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -14046,7 +14068,7 @@
         <v>2.217828890183227</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14082,7 +14104,7 @@
         <v>1.9087856627074558</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>9.375E-2</v>
       </c>
@@ -14118,7 +14140,7 @@
         <v>1.3209838705770289</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14154,7 +14176,7 @@
         <v>1.9493283120785829</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.1</v>
       </c>
@@ -14190,7 +14212,7 @@
         <v>1.1266265195449137</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14226,7 +14248,7 @@
         <v>1.3339224834290611</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14262,7 +14284,7 @@
         <v>1.8859880629279164</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.1</v>
       </c>
@@ -14298,7 +14320,7 @@
         <v>0.96053833418297718</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>9.375E-2</v>
       </c>
@@ -14334,7 +14356,7 @@
         <v>0.97212504462125282</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14370,7 +14392,7 @@
         <v>1.3472005752997631</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -14406,7 +14428,7 @@
         <v>1.5611355039952644</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14442,7 +14464,7 @@
         <v>1.6731782747924762</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14478,7 +14500,7 @@
         <v>1.4784466093270723</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14514,7 +14536,7 @@
         <v>1.5074706802277882</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14550,7 +14572,7 @@
         <v>2.119164979690348</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14586,7 +14608,7 @@
         <v>2.05048798378311</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.1</v>
       </c>
@@ -14622,7 +14644,7 @@
         <v>1.2977224920339587</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14658,7 +14680,7 @@
         <v>1.1052114551615153</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -14694,7 +14716,7 @@
         <v>1.659448905305495</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>9.375E-2</v>
       </c>
@@ -14730,7 +14752,7 @@
         <v>1.0686889292360626</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14766,7 +14788,7 @@
         <v>1.6209635290215938</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -14802,7 +14824,7 @@
         <v>1.2409666516473852</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.1</v>
       </c>
@@ -14838,7 +14860,7 @@
         <v>0.75172520822446309</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9.375E-2</v>
       </c>
@@ -14874,7 +14896,7 @@
         <v>1.4427223215397902</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14910,7 +14932,7 @@
         <v>1.4284058853215382</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -14946,7 +14968,7 @@
         <v>2.0530744611746012</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -14982,7 +15004,7 @@
         <v>1.2369811035357805</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9.375E-2</v>
       </c>
@@ -15018,7 +15040,7 @@
         <v>0.88645183061176569</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15054,7 +15076,7 @@
         <v>2.2341324383430927</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15090,7 +15112,7 @@
         <v>1.8133535394605271</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -15126,7 +15148,7 @@
         <v>1.7724188306482382</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -15162,7 +15184,7 @@
         <v>1.9833170729029028</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15198,7 +15220,7 @@
         <v>1.5786360637702308</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -15234,7 +15256,7 @@
         <v>1.045350390237108</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15270,7 +15292,7 @@
         <v>2.2722558878740076</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -15306,7 +15328,7 @@
         <v>1.2181000846239938</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15342,7 +15364,7 @@
         <v>1.4111477385980031</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -15378,7 +15400,7 @@
         <v>1.5922376360352866</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -15414,7 +15436,7 @@
         <v>1.7885941356995545</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.1</v>
       </c>
@@ -15450,7 +15472,7 @@
         <v>1.5551509421653114</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15486,7 +15508,7 @@
         <v>2.1300241967065836</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15522,7 +15544,7 @@
         <v>1.7358301380336321</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15558,7 +15580,7 @@
         <v>1.9561323131541699</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>9.375E-2</v>
       </c>
@@ -15594,7 +15616,7 @@
         <v>1.7102479292679964</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15630,7 +15652,7 @@
         <v>2.0967811898581585</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.1</v>
       </c>
@@ -15666,7 +15688,7 @@
         <v>1.3481714989051095</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15702,7 +15724,7 @@
         <v>1.8875733976805225</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -15738,7 +15760,7 @@
         <v>1.3304790389673673</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>9.375E-2</v>
       </c>
@@ -15774,7 +15796,7 @@
         <v>1.5009841486725048</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -15810,7 +15832,7 @@
         <v>1.837093553479628</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -15846,7 +15868,7 @@
         <v>1.6439726188635184</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.1</v>
       </c>
@@ -15882,7 +15904,7 @@
         <v>1.441186692382699</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>9.375E-2</v>
       </c>
@@ -15918,7 +15940,7 @@
         <v>1.5542513276543306</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -15954,7 +15976,7 @@
         <v>1.7504807450998059</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -15990,7 +16012,7 @@
         <v>1.8491454290561105</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16026,7 +16048,7 @@
         <v>1.6541006164277356</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -16062,7 +16084,7 @@
         <v>1.9750929757857436</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -16098,7 +16120,7 @@
         <v>1.8083268804702448</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -16134,7 +16156,7 @@
         <v>1.7201050140999894</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -16180,16 +16202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16221,7 +16243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16257,7 +16279,7 @@
         <v>1.8661416351255584</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16293,7 +16315,7 @@
         <v>1.957817591062333</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16329,7 +16351,7 @@
         <v>2.0347832016710576</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16365,7 +16387,7 @@
         <v>2.1507025365575281</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16401,7 +16423,7 @@
         <v>2.2631849717874672</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16437,7 +16459,7 @@
         <v>1.782637666465706</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16473,7 +16495,7 @@
         <v>1.8895098269612192</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16509,7 +16531,7 @@
         <v>2.0013282348586694</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16545,7 +16567,7 @@
         <v>2.1321062894757121</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16581,7 +16603,7 @@
         <v>2.199661465510546</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16617,7 +16639,7 @@
         <v>1.6495355287648072</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16653,7 +16675,7 @@
         <v>1.8327658117917247</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16689,7 +16711,7 @@
         <v>1.9708418321329382</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16725,7 +16747,7 @@
         <v>2.0859559100163461</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16761,7 +16783,7 @@
         <v>2.2155852027687497</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16797,7 +16819,7 @@
         <v>1.6293342562801314</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16833,7 +16855,7 @@
         <v>1.7691716488780562</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16869,7 +16891,7 @@
         <v>1.8716038833250237</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16905,7 +16927,7 @@
         <v>1.9572607855499831</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16941,7 +16963,7 @@
         <v>2.0079569290760935</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -16977,7 +16999,7 @@
         <v>1.6403354839386599</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -17013,7 +17035,7 @@
         <v>1.7275352034906355</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -17049,7 +17071,7 @@
         <v>1.7730054206681085</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -17085,7 +17107,7 @@
         <v>1.7864578491962502</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -17121,7 +17143,7 @@
         <v>1.7188974017518541</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17157,7 +17179,7 @@
         <v>1.7588147458053118</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17193,7 +17215,7 @@
         <v>1.8013814032436866</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17229,7 +17251,7 @@
         <v>1.8418821916965062</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17265,7 +17287,7 @@
         <v>1.9714245689373648</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17301,7 +17323,7 @@
         <v>2.0082760229559482</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17337,7 +17359,7 @@
         <v>1.5690550627903104</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17373,7 +17395,7 @@
         <v>1.6990611661654109</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17409,7 +17431,7 @@
         <v>1.7782005579943159</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17445,7 +17467,7 @@
         <v>1.920613993722986</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17481,7 +17503,7 @@
         <v>2.0150206279529073</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17517,7 +17539,7 @@
         <v>1.4849053941373334</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17553,7 +17575,7 @@
         <v>1.5723001467942406</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17589,7 +17611,7 @@
         <v>1.713856037356523</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17625,7 +17647,7 @@
         <v>1.8484321303836619</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17661,7 +17683,7 @@
         <v>1.9718107502742179</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17697,7 +17719,7 @@
         <v>1.45552450356767</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17733,7 +17755,7 @@
         <v>1.6175543871916154</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17769,7 +17791,7 @@
         <v>1.6933973609077171</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17805,7 +17827,7 @@
         <v>1.728265139275257</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17841,7 +17863,7 @@
         <v>1.7596556815046542</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17877,7 +17899,7 @@
         <v>1.3775609841377465</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17913,7 +17935,7 @@
         <v>1.5255050866587787</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17949,7 +17971,7 @@
         <v>1.5816725012408572</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -17985,7 +18007,7 @@
         <v>1.5929645256670324</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9.0624999999999997E-2</v>
       </c>
@@ -18021,7 +18043,7 @@
         <v>1.5626697959707914</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>9.375E-2</v>
       </c>
@@ -18057,7 +18079,7 @@
         <v>1.5056565225785399</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9.375E-2</v>
       </c>
@@ -18093,7 +18115,7 @@
         <v>1.5425945903828899</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>9.375E-2</v>
       </c>
@@ -18129,7 +18151,7 @@
         <v>1.6953559713668698</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>9.375E-2</v>
       </c>
@@ -18165,7 +18187,7 @@
         <v>1.7440562410374065</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>9.375E-2</v>
       </c>
@@ -18201,7 +18223,7 @@
         <v>1.8043232169966696</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>9.375E-2</v>
       </c>
@@ -18237,7 +18259,7 @@
         <v>1.3638539814260833</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>9.375E-2</v>
       </c>
@@ -18273,7 +18295,7 @@
         <v>1.4537255927541937</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>9.375E-2</v>
       </c>
@@ -18309,7 +18331,7 @@
         <v>1.5547525538260616</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>9.375E-2</v>
       </c>
@@ -18345,7 +18367,7 @@
         <v>1.6787203508514283</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>9.375E-2</v>
       </c>
@@ -18381,7 +18403,7 @@
         <v>1.8591223221534254</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>9.375E-2</v>
       </c>
@@ -18417,7 +18439,7 @@
         <v>1.2805402237691137</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>9.375E-2</v>
       </c>
@@ -18453,7 +18475,7 @@
         <v>1.4174743949607285</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>9.375E-2</v>
       </c>
@@ -18489,7 +18511,7 @@
         <v>1.5197092562561241</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>9.375E-2</v>
       </c>
@@ -18525,7 +18547,7 @@
         <v>1.6796606149653761</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>9.375E-2</v>
       </c>
@@ -18561,7 +18583,7 @@
         <v>1.743203035238843</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>9.375E-2</v>
       </c>
@@ -18597,7 +18619,7 @@
         <v>1.2593073977180385</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>9.375E-2</v>
       </c>
@@ -18633,7 +18655,7 @@
         <v>1.3860666131987405</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>9.375E-2</v>
       </c>
@@ -18669,7 +18691,7 @@
         <v>1.4894925474285619</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9.375E-2</v>
       </c>
@@ -18705,7 +18727,7 @@
         <v>1.5022313099791464</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>9.375E-2</v>
       </c>
@@ -18741,7 +18763,7 @@
         <v>1.5428444361813194</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>9.375E-2</v>
       </c>
@@ -18777,7 +18799,7 @@
         <v>1.1252639678953669</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>9.375E-2</v>
       </c>
@@ -18813,7 +18835,7 @@
         <v>1.2796106639189662</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>9.375E-2</v>
       </c>
@@ -18849,7 +18871,7 @@
         <v>1.3441008953816151</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>9.375E-2</v>
       </c>
@@ -18885,7 +18907,7 @@
         <v>1.4308790677732792</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>9.375E-2</v>
       </c>
@@ -18921,7 +18943,7 @@
         <v>1.380077943867001</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -18957,7 +18979,7 @@
         <v>1.2939605499473317</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -18993,7 +19015,7 @@
         <v>1.3164313141030675</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19029,7 +19051,7 @@
         <v>1.4558472489822223</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19065,7 +19087,7 @@
         <v>1.498498179657703</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19101,7 +19123,7 @@
         <v>1.5940627075342404</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19137,7 +19159,7 @@
         <v>1.1732409923448235</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19173,7 +19195,7 @@
         <v>1.2491558267926401</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19209,7 +19231,7 @@
         <v>1.3261928869401509</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19245,7 +19267,7 @@
         <v>1.5168399821713174</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19281,7 +19303,7 @@
         <v>1.6257868278782408</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19317,7 +19339,7 @@
         <v>1.1338903841811763</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19353,7 +19375,7 @@
         <v>1.2518896460671607</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19389,7 +19411,7 @@
         <v>1.3836924247115636</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19425,7 +19447,7 @@
         <v>1.4475499746804803</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19461,7 +19483,7 @@
         <v>1.5294233873677066</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19497,7 +19519,7 @@
         <v>0.99848839462034</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19533,7 +19555,7 @@
         <v>1.1617557280247959</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19569,7 +19591,7 @@
         <v>1.2484956860957015</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19605,7 +19627,7 @@
         <v>1.3028996497811114</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19641,7 +19663,7 @@
         <v>1.4245053966702141</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19677,7 +19699,7 @@
         <v>0.96676870871531539</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19713,7 +19735,7 @@
         <v>1.0586914746766036</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19749,7 +19771,7 @@
         <v>1.149132041093204</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19785,7 +19807,7 @@
         <v>1.2297337880037591</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9.6875000000000003E-2</v>
       </c>
@@ -19821,7 +19843,7 @@
         <v>1.2558281861050842</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.1</v>
       </c>
@@ -19857,7 +19879,7 @@
         <v>1.1421368192326766</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.1</v>
       </c>
@@ -19893,7 +19915,7 @@
         <v>1.1909256186770287</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.1</v>
       </c>
@@ -19929,7 +19951,7 @@
         <v>1.2846009106692464</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.1</v>
       </c>
@@ -19965,7 +19987,7 @@
         <v>1.3247715153441806</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.1</v>
       </c>
@@ -20001,7 +20023,7 @@
         <v>1.5118798753514109</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.1</v>
       </c>
@@ -20037,7 +20059,7 @@
         <v>0.96821477256997213</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.1</v>
       </c>
@@ -20073,7 +20095,7 @@
         <v>1.0596901612839025</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.1</v>
       </c>
@@ -20109,7 +20131,7 @@
         <v>1.1644623557480021</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.1</v>
       </c>
@@ -20145,7 +20167,7 @@
         <v>1.3220641557744666</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.1</v>
       </c>
@@ -20181,7 +20203,7 @@
         <v>1.4580854235170122</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.1</v>
       </c>
@@ -20217,7 +20239,7 @@
         <v>0.92681464217408815</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.1</v>
       </c>
@@ -20253,7 +20275,7 @@
         <v>1.0558419284645284</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.1</v>
       </c>
@@ -20289,7 +20311,7 @@
         <v>1.1353261242458739</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.1</v>
       </c>
@@ -20325,7 +20347,7 @@
         <v>1.2196537037286648</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.1</v>
       </c>
@@ -20361,7 +20383,7 @@
         <v>1.2973623265565812</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.1</v>
       </c>
@@ -20397,7 +20419,7 @@
         <v>0.84448665839669912</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.1</v>
       </c>
@@ -20433,7 +20455,7 @@
         <v>1.0021003318839006</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.1</v>
       </c>
@@ -20469,7 +20491,7 @@
         <v>1.0347723653664658</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.1</v>
       </c>
@@ -20505,7 +20527,7 @@
         <v>1.2157501133463435</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.1</v>
       </c>
@@ -20541,7 +20563,7 @@
         <v>1.2854058164073499</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.1</v>
       </c>
@@ -20577,7 +20599,7 @@
         <v>0.77613100819009606</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.1</v>
       </c>
@@ -20613,7 +20635,7 @@
         <v>0.93227088847464112</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.1</v>
       </c>
@@ -20649,7 +20671,7 @@
         <v>0.9755894753986798</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.1</v>
       </c>
@@ -20685,7 +20707,7 @@
         <v>1.1155663273863055</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.1</v>
       </c>
@@ -20728,19 +20750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN65" sqref="AN65"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AV54" sqref="AV54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -20766,7 +20788,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -20822,7 +20844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -20878,7 +20900,7 @@
         <v>2.93478873613E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -20934,7 +20956,7 @@
         <v>2.8989780675499999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -20990,7 +21012,7 @@
         <v>2.8556102416700001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -21046,7 +21068,7 @@
         <v>2.8092607582800001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -21102,7 +21124,7 @@
         <v>2.7530153194500001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -21158,7 +21180,7 @@
         <v>3.0366605767599999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -21214,7 +21236,7 @@
         <v>3.0136102622600001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -21270,7 +21292,7 @@
         <v>2.9619625620199999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -21326,7 +21348,7 @@
         <v>2.9202012720399999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -21382,7 +21404,7 @@
         <v>2.8736609570800001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -21438,7 +21460,7 @@
         <v>3.1696872004299999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -21494,7 +21516,7 @@
         <v>3.1359642831700001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -21550,7 +21572,7 @@
         <v>3.0771356012200001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -21606,7 +21628,7 @@
         <v>3.0329531952399999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -21662,7 +21684,7 @@
         <v>2.99875045169E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -21718,7 +21740,7 @@
         <v>3.3019718678999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -21774,7 +21796,7 @@
         <v>3.2669903559399999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -21830,7 +21852,7 @@
         <v>3.2134686726399998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -21886,7 +21908,7 @@
         <v>3.1571651859800001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -21942,7 +21964,7 @@
         <v>3.1423392685200002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.05</v>
       </c>
@@ -21998,7 +22020,7 @@
         <v>3.4080104139999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.05</v>
       </c>
@@ -22054,7 +22076,7 @@
         <v>3.3453981903099998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -22110,7 +22132,7 @@
         <v>3.3029109676599999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -22166,7 +22188,7 @@
         <v>3.2682524121100003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22222,7 +22244,7 @@
         <v>3.2539617490799998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22278,7 +22300,7 @@
         <v>3.1074944493099999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22334,7 +22356,7 @@
         <v>3.0735440999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -22390,7 +22412,7 @@
         <v>3.0523488584800001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.05</v>
       </c>
@@ -22446,7 +22468,7 @@
         <v>3.01969357449E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22502,7 +22524,7 @@
         <v>2.9882176296500002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -22558,7 +22580,7 @@
         <v>3.2425664104899998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.1</v>
       </c>
@@ -22614,7 +22636,7 @@
         <v>3.2160277805100002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22670,7 +22692,7 @@
         <v>3.1840366341200001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22726,7 +22748,7 @@
         <v>3.1342652111100003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22782,7 +22804,7 @@
         <v>3.0885837933199999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.1</v>
       </c>
@@ -22838,7 +22860,7 @@
         <v>3.3606223866100002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.1</v>
       </c>
@@ -22894,7 +22916,7 @@
         <v>3.3333869579600002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -22950,7 +22972,7 @@
         <v>3.2872364379500002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.05</v>
       </c>
@@ -23006,7 +23028,7 @@
         <v>3.2514079548299997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23062,7 +23084,7 @@
         <v>3.21556146428E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -23118,7 +23140,7 @@
         <v>3.4935634825100002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.1</v>
       </c>
@@ -23174,7 +23196,7 @@
         <v>3.4417772663400001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23230,7 +23252,7 @@
         <v>3.3815965272800001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.05</v>
       </c>
@@ -23286,7 +23308,7 @@
         <v>3.35469349996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.05</v>
       </c>
@@ -23342,7 +23364,7 @@
         <v>3.3143446215199997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23398,7 +23420,7 @@
         <v>3.6057816258099999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.1</v>
       </c>
@@ -23454,7 +23476,7 @@
         <v>3.5570470442700002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23510,7 +23532,7 @@
         <v>3.5100549054900003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.1</v>
       </c>
@@ -23566,7 +23588,7 @@
         <v>3.46329392587E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.05</v>
       </c>
@@ -23622,7 +23644,7 @@
         <v>3.4347207171200003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.05</v>
       </c>
@@ -23678,7 +23700,7 @@
         <v>3.3322002120799998E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.05</v>
       </c>
@@ -23734,7 +23756,7 @@
         <v>3.2774190586900002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.1</v>
       </c>
@@ -23790,7 +23812,7 @@
         <v>3.23862230867E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23846,7 +23868,7 @@
         <v>3.2134082454500001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.05</v>
       </c>
@@ -23902,7 +23924,7 @@
         <v>3.1714002684099997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.05</v>
       </c>
@@ -23958,7 +23980,7 @@
         <v>3.4376445304599997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -24014,7 +24036,7 @@
         <v>3.3974490236500003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -24070,7 +24092,7 @@
         <v>3.3596929658100003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -24126,7 +24148,7 @@
         <v>3.30578627234E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.05</v>
       </c>
@@ -24182,7 +24204,7 @@
         <v>3.27376428035E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -24238,7 +24260,7 @@
         <v>3.5630397347599999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.05</v>
       </c>
@@ -24294,7 +24316,7 @@
         <v>3.5186718927600003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.05</v>
       </c>
@@ -24350,7 +24372,7 @@
         <v>3.4886207565999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.05</v>
       </c>
@@ -24406,7 +24428,7 @@
         <v>3.4267741770199998E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.05</v>
       </c>
@@ -24462,7 +24484,7 @@
         <v>3.3902199254299999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.05</v>
       </c>
@@ -24518,7 +24540,7 @@
         <v>3.7099671509099999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -24574,7 +24596,7 @@
         <v>3.6517502546200002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.05</v>
       </c>
@@ -24630,7 +24652,7 @@
         <v>3.5926007909800002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.05</v>
       </c>
@@ -24686,7 +24708,7 @@
         <v>3.5697987011E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -24742,7 +24764,7 @@
         <v>3.5178204821499998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -24798,7 +24820,7 @@
         <v>3.7702083784200001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -24854,7 +24876,7 @@
         <v>3.7171034738500003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -24910,7 +24932,7 @@
         <v>3.6692307211200002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -24966,7 +24988,7 @@
         <v>3.6565047074199997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.05</v>
       </c>
@@ -25022,7 +25044,7 @@
         <v>3.6175323713299998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.05</v>
       </c>
@@ -25078,7 +25100,7 @@
         <v>3.5080251789800003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25134,7 +25156,7 @@
         <v>3.4709727576500003E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25190,7 +25212,7 @@
         <v>3.4291560702500001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.05</v>
       </c>
@@ -25246,7 +25268,7 @@
         <v>3.3924948456799997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.05</v>
       </c>
@@ -25302,7 +25324,7 @@
         <v>3.3473883867499998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25358,7 +25380,7 @@
         <v>3.6340342401899997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25414,7 +25436,7 @@
         <v>3.5869177756900003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25470,7 +25492,7 @@
         <v>3.5527572820700001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25526,7 +25548,7 @@
         <v>3.49619572196E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.05</v>
       </c>
@@ -25582,7 +25604,7 @@
         <v>3.4797429204099999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25638,7 +25660,7 @@
         <v>3.75968206884E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25694,7 +25716,7 @@
         <v>3.7160543538800002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25750,7 +25772,7 @@
         <v>3.6842619443199998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25806,7 +25828,7 @@
         <v>3.6370714519099998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25862,7 +25884,7 @@
         <v>3.5971301889099999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.05</v>
       </c>
@@ -25918,7 +25940,7 @@
         <v>3.8653501481200003E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -25974,7 +25996,7 @@
         <v>3.8213925537699998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26030,7 +26052,7 @@
         <v>3.77383510851E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26086,7 +26108,7 @@
         <v>3.7165252846600001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26142,7 +26164,7 @@
         <v>3.6610563362799997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26198,7 +26220,7 @@
         <v>3.93685670476E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26254,7 +26276,7 @@
         <v>3.91444528002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26310,7 +26332,7 @@
         <v>3.8529210191299998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26366,7 +26388,7 @@
         <v>3.81056324898E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26422,7 +26444,7 @@
         <v>3.7870000569099997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -26478,7 +26500,7 @@
         <v>3.6740281272999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -26534,7 +26556,7 @@
         <v>3.6512656311499997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -26590,7 +26612,7 @@
         <v>3.6035737515300002E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -26646,7 +26668,7 @@
         <v>3.5636264934400003E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -26702,7 +26724,7 @@
         <v>3.5080200877799998E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -26758,7 +26780,7 @@
         <v>3.8233604364499997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -26814,7 +26836,7 @@
         <v>3.7816084055399997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0</v>
       </c>
@@ -26870,7 +26892,7 @@
         <v>3.7354208078699998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0</v>
       </c>
@@ -26926,7 +26948,7 @@
         <v>3.6863999007300002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -26982,7 +27004,7 @@
         <v>3.6556595895600001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -27038,7 +27060,7 @@
         <v>3.9359233450499999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -27094,7 +27116,7 @@
         <v>3.8942894689099998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -27150,7 +27172,7 @@
         <v>3.8589328479300002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -27206,7 +27228,7 @@
         <v>3.81882281283E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -27262,7 +27284,7 @@
         <v>3.76864409902E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -27318,7 +27340,7 @@
         <v>4.0127076625900003E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -27374,7 +27396,7 @@
         <v>3.9678786088400003E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -27430,7 +27452,7 @@
         <v>3.94673995609E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0</v>
       </c>
@@ -27486,7 +27508,7 @@
         <v>3.8895726057E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -27542,7 +27564,7 @@
         <v>3.8428189972200003E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0</v>
       </c>
@@ -27598,7 +27620,7 @@
         <v>4.1109686819500002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0</v>
       </c>
@@ -27654,7 +27676,7 @@
         <v>4.0663141405500002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -27710,7 +27732,7 @@
         <v>4.01871968329E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0</v>
       </c>
@@ -27766,7 +27788,7 @@
         <v>3.9625596752200003E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
